--- a/excel.xlsx
+++ b/excel.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,12 +379,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Phone</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Age</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -406,10 +406,12 @@
         <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+        <v>543095991</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -418,43 +420,66 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Oded</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
+        <v>54984817</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>developer</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Berry</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5667825</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fifa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>555675675</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>developer</t>
         </is>
       </c>
     </row>
